--- a/Software/Fortinet.xlsx
+++ b/Software/Fortinet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Cybersecurity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D22710-BAA6-8B43-B4DB-EF2550B3629E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A158511D-02A3-2F49-AE6E-91B8191C20EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -501,9 +538,6 @@
   </si>
   <si>
     <t>Buy/Sell</t>
-  </si>
-  <si>
-    <t>Fortinet</t>
   </si>
   <si>
     <t>P/S</t>
@@ -522,11 +556,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -893,31 +928,14 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="16" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -944,14 +962,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -983,6 +996,23 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1001,6 +1031,13 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2176,6 +2213,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1tg3m&amp;q=XNAS%3aFTNT&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>FORTINET, INC. (XNAS:FTNT)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a1tg3m</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>71.516000000000005</v>
+    <v>42.610100000000003</v>
+    <v>1.1623000000000001</v>
+    <v>0.37</v>
+    <v>5.679E-3</v>
+    <v>-0.1</v>
+    <v>-1.5260000000000002E-3</v>
+    <v>USD</v>
+    <v>Fortinet, Inc. is engaged in offering cybersecurity and networking solutions. The Company provides cyber security solutions to a variety of organizations, including enterprises, communication service providers, security service providers, government organizations and small businesses. The Company’s product offerings consist of its core platform network security products and its enhanced platform technology products, which are offered in a range of forms spanning physical appliances, virtual appliances, software, and cloud-hosted services. Its Secure Networking solutions enable the convergence of networking and security across all edges to provide next generation firewall, software-defined wide area network (SD- WAN), and secure access service edge (SASE). Its Zero Trust Access solutions enable customers to know and control who and what is on their network. Its FortiGuard security services counter threats in real time with artificial intelligence-powered, coordinated protection.</v>
+    <v>12595</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>899 Kifer Road, SUNNYVALE, CA, 94086 US</v>
+    <v>65.58</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45022.999641388284</v>
+    <v>0</v>
+    <v>64.259299999999996</v>
+    <v>51372023976</v>
+    <v>FORTINET, INC.</v>
+    <v>FORTINET, INC.</v>
+    <v>64.75</v>
+    <v>60.941200000000002</v>
+    <v>65.150000000000006</v>
+    <v>65.52</v>
+    <v>65.42</v>
+    <v>784066300</v>
+    <v>FTNT</v>
+    <v>FORTINET, INC. (XNAS:FTNT)</v>
+    <v>2772246</v>
+    <v>4248046</v>
+    <v>2000</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2475,11 +2952,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="O83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T96" sqref="T96"/>
+      <selection pane="bottomRight" activeCell="S115" sqref="S115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2491,8 +2968,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>156</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2006</v>
@@ -2542,19 +3019,19 @@
       <c r="Q1" s="8">
         <v>2021</v>
       </c>
-      <c r="R1" s="26">
+      <c r="R1" s="21">
         <v>2022</v>
       </c>
-      <c r="S1" s="26">
+      <c r="S1" s="21">
         <v>2023</v>
       </c>
-      <c r="T1" s="26">
+      <c r="T1" s="21">
         <v>2024</v>
       </c>
-      <c r="U1" s="26">
+      <c r="U1" s="21">
         <v>2025</v>
       </c>
-      <c r="V1" s="26">
+      <c r="V1" s="21">
         <v>2026</v>
       </c>
     </row>
@@ -2674,31 +3151,31 @@
       <c r="Q3" s="1">
         <v>3342200000</v>
       </c>
-      <c r="R3" s="27">
+      <c r="R3" s="22">
         <v>4098000000</v>
       </c>
-      <c r="S3" s="27">
+      <c r="S3" s="22">
         <v>5404000000</v>
       </c>
-      <c r="T3" s="27">
+      <c r="T3" s="22">
         <v>6461000000</v>
       </c>
-      <c r="U3" s="27">
+      <c r="U3" s="22">
         <v>7754000000</v>
       </c>
-      <c r="V3" s="27">
+      <c r="V3" s="22">
         <v>9298000000</v>
       </c>
-      <c r="W3" s="56" t="s">
+      <c r="W3" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="X3" s="57" t="s">
+      <c r="X3" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="Y3" s="57" t="s">
+      <c r="Y3" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="Z3" s="57" t="s">
+      <c r="Z3" s="43" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2787,19 +3264,19 @@
         <f t="shared" si="5"/>
         <v>0.19912303327314929</v>
       </c>
-      <c r="W4" s="58">
+      <c r="W4" s="44">
         <f>(Q4+P4+O4)/3</f>
         <v>0.2295183101073032</v>
       </c>
-      <c r="X4" s="58">
+      <c r="X4" s="44">
         <f>(Q20+P20+O20)/3</f>
         <v>0.29905986543761398</v>
       </c>
-      <c r="Y4" s="58">
+      <c r="Y4" s="44">
         <f>(Q29+P29+O29)/3</f>
         <v>0.24039436187017008</v>
       </c>
-      <c r="Z4" s="58">
+      <c r="Z4" s="44">
         <f>(Q105+P105+O105)/3</f>
         <v>0.27221068045512248</v>
       </c>
@@ -2919,16 +3396,16 @@
       <c r="Q6" s="10">
         <v>2559200000</v>
       </c>
-      <c r="W6" s="56" t="s">
+      <c r="W6" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="X6" s="57" t="s">
+      <c r="X6" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="Y6" s="57" t="s">
+      <c r="Y6" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="Z6" s="57" t="s">
+      <c r="Z6" s="43" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2984,19 +3461,19 @@
       <c r="Q7" s="2">
         <v>0.76570000000000005</v>
       </c>
-      <c r="W7" s="58">
+      <c r="W7" s="44">
         <f>Q7</f>
         <v>0.76570000000000005</v>
       </c>
-      <c r="X7" s="59">
+      <c r="X7" s="45">
         <f>Q21</f>
         <v>0.2155</v>
       </c>
-      <c r="Y7" s="59">
+      <c r="Y7" s="45">
         <f>Q30</f>
         <v>0.18160000000000001</v>
       </c>
-      <c r="Z7" s="59">
+      <c r="Z7" s="45">
         <f>Q106/Q3</f>
         <v>0.36018191610316558</v>
       </c>
@@ -3122,16 +3599,16 @@
         <f t="shared" si="6"/>
         <v>0.12692238645203757</v>
       </c>
-      <c r="W9" s="56" t="s">
+      <c r="W9" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="X9" s="57" t="s">
+      <c r="X9" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="Y9" s="57" t="s">
+      <c r="Y9" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="Z9" s="57" t="s">
+      <c r="Z9" s="43" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3187,19 +3664,19 @@
       <c r="Q10" s="1">
         <v>143500000</v>
       </c>
-      <c r="W10" s="58">
+      <c r="W10" s="44">
         <f>Q9</f>
         <v>0.12692238645203757</v>
       </c>
-      <c r="X10" s="59">
+      <c r="X10" s="45">
         <f>Q13</f>
         <v>0.44557477110885046</v>
       </c>
-      <c r="Y10" s="59">
+      <c r="Y10" s="45">
         <f>Q80</f>
         <v>6.2204535934414461E-2</v>
       </c>
-      <c r="Z10" s="59">
+      <c r="Z10" s="45">
         <f>Q89</f>
         <v>8.853449823469571E-2</v>
       </c>
@@ -3309,16 +3786,16 @@
       <c r="Q12" s="1">
         <v>1489200000</v>
       </c>
-      <c r="W12" s="56" t="s">
+      <c r="W12" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="X12" s="57" t="s">
+      <c r="X12" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="Y12" s="57" t="s">
+      <c r="Y12" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="Z12" s="57" t="s">
+      <c r="Z12" s="43" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3390,15 +3867,15 @@
         <f t="shared" si="7"/>
         <v>0.44557477110885046</v>
       </c>
-      <c r="W13" s="58">
+      <c r="W13" s="44">
         <f>Q28/Q72</f>
         <v>0.7762568760394013</v>
       </c>
-      <c r="X13" s="59">
+      <c r="X13" s="45">
         <f>Q28/Q54</f>
         <v>0.10251558513963271</v>
       </c>
-      <c r="Y13" s="59">
+      <c r="Y13" s="45">
         <f>Q22/(Q72+Q56+Q61)</f>
         <v>0.36743686797356084</v>
       </c>
@@ -3512,17 +3989,17 @@
       <c r="Q15" s="1">
         <v>1913400000</v>
       </c>
-      <c r="W15" s="56" t="s">
+      <c r="W15" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="X15" s="57" t="s">
+      <c r="X15" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y15" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="Y15" s="57" t="s">
+      <c r="Z15" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="Z15" s="57" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3581,17 +4058,17 @@
         <f>(Q35+P35+O35+N35+M35)/5</f>
         <v>-1.0521812686074624E-2</v>
       </c>
-      <c r="X16" s="60">
+      <c r="X16" s="46">
         <f>Y101/Q3</f>
-        <v>14.062593501286578</v>
-      </c>
-      <c r="Y16" s="60">
+        <v>15.370721074741189</v>
+      </c>
+      <c r="Y16" s="46">
         <f>Y101/Q28</f>
-        <v>77.455504284772573</v>
-      </c>
-      <c r="Z16" s="61">
+        <v>84.660553684904414</v>
+      </c>
+      <c r="Z16" s="47">
         <f>Y101/Q106</f>
-        <v>39.043030403721545</v>
+        <v>42.674882850971919</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -3699,8 +4176,8 @@
       <c r="Q18" s="1">
         <v>84400000</v>
       </c>
-      <c r="W18" s="56" t="s">
-        <v>160</v>
+      <c r="W18" s="42" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -3755,7 +4232,7 @@
       <c r="Q19" s="10">
         <v>720200000</v>
       </c>
-      <c r="W19" s="62">
+      <c r="W19" s="48">
         <f>Q40-Q56-Q61</f>
         <v>1563300000</v>
       </c>
@@ -4590,63 +5067,63 @@
         <v>105</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="23">
+      <c r="C35" s="20">
         <f>(C34-B34)/B34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="20">
         <f t="shared" ref="D35:G35" si="30">(D34-C34)/C34</f>
         <v>0</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="20">
         <f t="shared" si="30"/>
         <v>-2.8351360209767289E-2</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="20">
         <f t="shared" si="30"/>
         <v>0.19908308928379767</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="20">
         <f t="shared" si="30"/>
         <v>4.7152922522153883E-2</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="20">
         <f t="shared" ref="H35" si="31">(H34-G34)/G34</f>
         <v>1.5557360133348802E-2</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="20">
         <f t="shared" ref="I35" si="32">(I34-H34)/H34</f>
         <v>1.1146582977111628E-2</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="20">
         <f t="shared" ref="J35" si="33">(J34-I34)/I34</f>
         <v>6.5761700052918547E-3</v>
       </c>
-      <c r="K35" s="23">
+      <c r="K35" s="20">
         <f t="shared" ref="K35" si="34">(K34-J34)/J34</f>
         <v>4.0475163773192588E-2</v>
       </c>
-      <c r="L35" s="23">
+      <c r="L35" s="20">
         <f t="shared" ref="L35" si="35">(L34-K34)/K34</f>
         <v>1.1184221731453778E-3</v>
       </c>
-      <c r="M35" s="23">
+      <c r="M35" s="20">
         <f t="shared" ref="M35" si="36">(M34-L34)/L34</f>
         <v>9.873084644262722E-3</v>
       </c>
-      <c r="N35" s="23">
+      <c r="N35" s="20">
         <f t="shared" ref="N35" si="37">(N34-M34)/M34</f>
         <v>-2.1782467331914489E-2</v>
       </c>
-      <c r="O35" s="23">
+      <c r="O35" s="20">
         <f t="shared" ref="O35" si="38">(O34-N34)/N34</f>
         <v>4.5924225028702642E-3</v>
       </c>
-      <c r="P35" s="23">
+      <c r="P35" s="20">
         <f t="shared" ref="P35" si="39">(P34-O34)/O34</f>
         <v>-4.1714285714285718E-2</v>
       </c>
-      <c r="Q35" s="23">
+      <c r="Q35" s="20">
         <f t="shared" ref="Q35" si="40">(Q34-P34)/P34</f>
         <v>-3.5778175313059034E-3</v>
       </c>
@@ -5718,49 +6195,49 @@
       <c r="B56" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C56" s="35">
+      <c r="C56" s="25">
         <v>0</v>
       </c>
-      <c r="D56" s="35">
+      <c r="D56" s="25">
         <v>0</v>
       </c>
-      <c r="E56" s="35">
+      <c r="E56" s="25">
         <v>0</v>
       </c>
-      <c r="F56" s="35">
+      <c r="F56" s="25">
         <v>0</v>
       </c>
-      <c r="G56" s="35">
+      <c r="G56" s="25">
         <v>0</v>
       </c>
-      <c r="H56" s="35">
+      <c r="H56" s="25">
         <v>0</v>
       </c>
-      <c r="I56" s="35">
+      <c r="I56" s="25">
         <v>0</v>
       </c>
-      <c r="J56" s="35">
+      <c r="J56" s="25">
         <v>0</v>
       </c>
-      <c r="K56" s="35">
+      <c r="K56" s="25">
         <v>0</v>
       </c>
-      <c r="L56" s="35">
+      <c r="L56" s="25">
         <v>0</v>
       </c>
-      <c r="M56" s="35">
+      <c r="M56" s="25">
         <v>0</v>
       </c>
-      <c r="N56" s="35">
+      <c r="N56" s="25">
         <v>0</v>
       </c>
-      <c r="O56" s="35">
+      <c r="O56" s="25">
         <v>0</v>
       </c>
-      <c r="P56" s="35">
+      <c r="P56" s="25">
         <v>0</v>
       </c>
-      <c r="Q56" s="35">
+      <c r="Q56" s="25">
         <v>0</v>
       </c>
     </row>
@@ -7210,10 +7687,10 @@
       <c r="Q83" s="1">
         <v>-19400000</v>
       </c>
-      <c r="X83" s="66" t="s">
+      <c r="X83" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="Y83" s="67"/>
+      <c r="Y83" s="64"/>
     </row>
     <row r="84" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7267,10 +7744,10 @@
       <c r="Q84" s="1">
         <v>-13100000</v>
       </c>
-      <c r="X84" s="68" t="s">
+      <c r="X84" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="Y84" s="69"/>
+      <c r="Y84" s="66"/>
     </row>
     <row r="85" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7324,10 +7801,10 @@
       <c r="Q85" s="1">
         <v>450900000</v>
       </c>
-      <c r="X85" s="20" t="s">
+      <c r="X85" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="Y85" s="21">
+      <c r="Y85" s="51">
         <f>Q17</f>
         <v>14900000</v>
       </c>
@@ -7384,10 +7861,10 @@
       <c r="Q86" s="1">
         <v>292300000</v>
       </c>
-      <c r="X86" s="20" t="s">
+      <c r="X86" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="Y86" s="36">
+      <c r="Y86" s="52">
         <f>Q56</f>
         <v>0</v>
       </c>
@@ -7444,10 +7921,10 @@
       <c r="Q87" s="10">
         <v>1499700000</v>
       </c>
-      <c r="X87" s="20" t="s">
+      <c r="X87" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="Y87" s="21">
+      <c r="Y87" s="51">
         <f>Q61</f>
         <v>988400000</v>
       </c>
@@ -7504,10 +7981,10 @@
       <c r="Q88" s="1">
         <v>-295900000</v>
       </c>
-      <c r="X88" s="24" t="s">
+      <c r="X88" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="Y88" s="25">
+      <c r="Y88" s="54">
         <f>Y85/(Y86+Y87)</f>
         <v>1.5074868474301902E-2</v>
       </c>
@@ -7580,10 +8057,10 @@
         <f t="shared" ref="Q89" si="62">(-1*Q88)/Q3</f>
         <v>8.853449823469571E-2</v>
       </c>
-      <c r="X89" s="20" t="s">
+      <c r="X89" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="Y89" s="21">
+      <c r="Y89" s="51">
         <f>Q27</f>
         <v>14100000</v>
       </c>
@@ -7640,10 +8117,10 @@
       <c r="Q90" s="1">
         <v>-234900000</v>
       </c>
-      <c r="X90" s="20" t="s">
+      <c r="X90" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Y90" s="21">
+      <c r="Y90" s="51">
         <f>Q25</f>
         <v>628400000</v>
       </c>
@@ -7700,10 +8177,10 @@
       <c r="Q91" s="1">
         <v>-2350500000</v>
       </c>
-      <c r="X91" s="24" t="s">
+      <c r="X91" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="Y91" s="25">
+      <c r="Y91" s="54">
         <f>Y89/Y90</f>
         <v>2.2437937619350732E-2</v>
       </c>
@@ -7760,10 +8237,10 @@
       <c r="Q92" s="1">
         <v>1555800000</v>
       </c>
-      <c r="X92" s="28" t="s">
+      <c r="X92" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="Y92" s="29">
+      <c r="Y92" s="56">
         <f>Y88*(1-Y91)</f>
         <v>1.4736619515855599E-2</v>
       </c>
@@ -7818,10 +8295,10 @@
         <v>1300000</v>
       </c>
       <c r="Q93" s="1"/>
-      <c r="X93" s="68" t="s">
+      <c r="X93" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="Y93" s="69"/>
+      <c r="Y93" s="68"/>
     </row>
     <row r="94" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7875,10 +8352,10 @@
       <c r="Q94" s="10">
         <v>-1325100000</v>
       </c>
-      <c r="X94" s="20" t="s">
+      <c r="X94" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="Y94" s="22">
+      <c r="Y94" s="57">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -7934,11 +8411,12 @@
       <c r="Q95" s="1">
         <v>-19500000</v>
       </c>
-      <c r="X95" s="20" t="s">
+      <c r="X95" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="Y95" s="30">
-        <v>1.1399999999999999</v>
+      <c r="Y95" s="58" cm="1">
+        <f t="array" ref="Y95">_FV(A1,"Beta")</f>
+        <v>1.1623000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -7993,10 +8471,10 @@
       <c r="Q96" s="1">
         <v>26000000</v>
       </c>
-      <c r="X96" s="20" t="s">
+      <c r="X96" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="Y96" s="22">
+      <c r="Y96" s="57">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -8052,70 +8530,70 @@
       <c r="Q97" s="1">
         <v>-741800000</v>
       </c>
-      <c r="X97" s="28" t="s">
+      <c r="X97" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="Y97" s="29">
+      <c r="Y97" s="56">
         <f>(Y94)+((Y95)*(Y96-Y94))</f>
-        <v>9.0026999999999996E-2</v>
+        <v>9.0987015000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B98" s="35">
+      <c r="B98" s="25">
         <v>0</v>
       </c>
-      <c r="C98" s="35">
+      <c r="C98" s="25">
         <v>0</v>
       </c>
-      <c r="D98" s="35">
+      <c r="D98" s="25">
         <v>0</v>
       </c>
-      <c r="E98" s="35">
+      <c r="E98" s="25">
         <v>0</v>
       </c>
-      <c r="F98" s="35">
+      <c r="F98" s="25">
         <v>0</v>
       </c>
-      <c r="G98" s="35">
+      <c r="G98" s="25">
         <v>0</v>
       </c>
-      <c r="H98" s="35">
+      <c r="H98" s="25">
         <v>0</v>
       </c>
-      <c r="I98" s="35">
+      <c r="I98" s="25">
         <v>0</v>
       </c>
-      <c r="J98" s="35">
+      <c r="J98" s="25">
         <v>0</v>
       </c>
-      <c r="K98" s="35">
+      <c r="K98" s="25">
         <v>0</v>
       </c>
-      <c r="L98" s="35">
+      <c r="L98" s="25">
         <v>0</v>
       </c>
-      <c r="M98" s="35">
+      <c r="M98" s="25">
         <v>0</v>
       </c>
-      <c r="N98" s="35">
+      <c r="N98" s="25">
         <v>0</v>
       </c>
-      <c r="O98" s="35">
+      <c r="O98" s="25">
         <v>0</v>
       </c>
-      <c r="P98" s="35">
+      <c r="P98" s="25">
         <v>0</v>
       </c>
-      <c r="Q98" s="35">
+      <c r="Q98" s="25">
         <v>0</v>
       </c>
-      <c r="X98" s="68" t="s">
+      <c r="X98" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="Y98" s="69"/>
+      <c r="Y98" s="68"/>
     </row>
     <row r="99" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -8169,10 +8647,10 @@
       <c r="Q99" s="1">
         <v>818100000</v>
       </c>
-      <c r="X99" s="20" t="s">
+      <c r="X99" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="Y99" s="21">
+      <c r="Y99" s="51">
         <f>Y86+Y87</f>
         <v>988400000</v>
       </c>
@@ -8229,12 +8707,12 @@
       <c r="Q100" s="10">
         <v>82800000</v>
       </c>
-      <c r="X100" s="24" t="s">
+      <c r="X100" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="Y100" s="25">
+      <c r="Y100" s="54">
         <f>Y99/Y103</f>
-        <v>2.0596644189012345E-2</v>
+        <v>1.8876852495561237E-2</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8289,11 +8767,12 @@
       <c r="Q101" s="1">
         <v>-100000</v>
       </c>
-      <c r="X101" s="20" t="s">
+      <c r="X101" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="Y101" s="31">
-        <v>47000000000</v>
+      <c r="Y101" s="37" cm="1">
+        <f t="array" ref="Y101">_FV(A1,"Market cap",TRUE)</f>
+        <v>51372023976</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8348,12 +8827,12 @@
       <c r="Q102" s="10">
         <v>257300000</v>
       </c>
-      <c r="X102" s="24" t="s">
+      <c r="X102" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="Y102" s="25">
+      <c r="Y102" s="54">
         <f>Y101/Y103</f>
-        <v>0.9794033558109877</v>
+        <v>0.98112314750443874</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8408,12 +8887,12 @@
       <c r="Q103" s="1">
         <v>1061800000</v>
       </c>
-      <c r="X103" s="28" t="s">
+      <c r="X103" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="Y103" s="32">
+      <c r="Y103" s="59">
         <f>Y99+Y101</f>
-        <v>47988400000</v>
+        <v>52360423976</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8468,10 +8947,10 @@
       <c r="Q104" s="11">
         <v>1319100000</v>
       </c>
-      <c r="X104" s="68" t="s">
+      <c r="X104" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="Y104" s="69"/>
+      <c r="Y104" s="66"/>
     </row>
     <row r="105" spans="1:25" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -8544,12 +9023,12 @@
       <c r="U105" s="15"/>
       <c r="V105" s="15"/>
       <c r="W105" s="15"/>
-      <c r="X105" s="33" t="s">
+      <c r="X105" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="Y105" s="34">
+      <c r="Y105" s="24">
         <f>(Y100*Y92)+(Y102*Y97)</f>
-        <v>8.8476270822312714E-2</v>
+        <v>8.9547647531717595E-2</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8604,33 +9083,33 @@
       <c r="Q106" s="1">
         <v>1203800000</v>
       </c>
-      <c r="R106" s="37">
+      <c r="R106" s="26">
         <f>Q106*(1+$Y$106)</f>
         <v>1478187725.5553896</v>
       </c>
-      <c r="S106" s="37">
+      <c r="S106" s="26">
         <f t="shared" ref="S106:V106" si="64">R106*(1+$Y$106)</f>
         <v>1815117919.9058113</v>
       </c>
-      <c r="T106" s="37">
+      <c r="T106" s="26">
         <f t="shared" si="64"/>
         <v>2228846178.4685173</v>
       </c>
-      <c r="U106" s="37">
+      <c r="U106" s="26">
         <f t="shared" si="64"/>
         <v>2736877440.7403216</v>
       </c>
-      <c r="V106" s="37">
+      <c r="V106" s="26">
         <f t="shared" si="64"/>
         <v>3360706628.3866019</v>
       </c>
-      <c r="W106" s="38" t="s">
+      <c r="W106" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="X106" s="39" t="s">
+      <c r="X106" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="Y106" s="40">
+      <c r="Y106" s="29">
         <f>(SUM(R4:V4)/5)</f>
         <v>0.22793464492057605</v>
       </c>
@@ -8653,138 +9132,139 @@
       <c r="O107" s="13"/>
       <c r="P107" s="13"/>
       <c r="Q107" s="13"/>
-      <c r="R107" s="38"/>
-      <c r="S107" s="38"/>
-      <c r="T107" s="38"/>
-      <c r="U107" s="38"/>
-      <c r="V107" s="41">
+      <c r="R107" s="27"/>
+      <c r="S107" s="27"/>
+      <c r="T107" s="27"/>
+      <c r="U107" s="27"/>
+      <c r="V107" s="30">
         <f>V106*(1+Y107)/(Y108-Y107)</f>
-        <v>54267905935.101059</v>
-      </c>
-      <c r="W107" s="42" t="s">
+        <v>53367154742.6045</v>
+      </c>
+      <c r="W107" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="X107" s="43" t="s">
+      <c r="X107" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="Y107" s="44">
+      <c r="Y107" s="33">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R108" s="41">
+      <c r="R108" s="30">
         <f t="shared" ref="R108:T108" si="65">R107+R106</f>
         <v>1478187725.5553896</v>
       </c>
-      <c r="S108" s="41">
+      <c r="S108" s="30">
         <f t="shared" si="65"/>
         <v>1815117919.9058113</v>
       </c>
-      <c r="T108" s="41">
+      <c r="T108" s="30">
         <f t="shared" si="65"/>
         <v>2228846178.4685173</v>
       </c>
-      <c r="U108" s="41">
+      <c r="U108" s="30">
         <f>U107+U106</f>
         <v>2736877440.7403216</v>
       </c>
-      <c r="V108" s="41">
+      <c r="V108" s="30">
         <f>V107+V106</f>
-        <v>57628612563.487663</v>
-      </c>
-      <c r="W108" s="42" t="s">
+        <v>56727861370.991104</v>
+      </c>
+      <c r="W108" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="X108" s="45" t="s">
+      <c r="X108" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="Y108" s="46">
+      <c r="Y108" s="35">
         <f>Y105</f>
-        <v>8.8476270822312714E-2</v>
+        <v>8.9547647531717595E-2</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R109" s="64" t="s">
+      <c r="R109" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="S109" s="65"/>
+      <c r="S109" s="62"/>
     </row>
     <row r="110" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R110" s="47" t="s">
+      <c r="R110" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="S110" s="48">
+      <c r="S110" s="37">
         <f>NPV(Y108,R108,S108,T108,U108,V108)</f>
-        <v>44285669284.912224</v>
+        <v>43496850394.156944</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R111" s="47" t="s">
+      <c r="R111" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="S111" s="48">
+      <c r="S111" s="37">
         <f>Q40</f>
         <v>2551700000</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R112" s="47" t="s">
+      <c r="R112" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="S112" s="48">
+      <c r="S112" s="37">
         <f>Y99</f>
         <v>988400000</v>
       </c>
     </row>
     <row r="113" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R113" s="47" t="s">
+      <c r="R113" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="S113" s="48">
+      <c r="S113" s="37">
         <f>S110+S111-S112</f>
-        <v>45848969284.912224</v>
+        <v>45060150394.156944</v>
       </c>
     </row>
     <row r="114" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R114" s="47" t="s">
+      <c r="R114" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="S114" s="63">
+      <c r="S114" s="49">
         <f>Q34*(1+(5*W16))</f>
         <v>791545127.5039233</v>
       </c>
     </row>
     <row r="115" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R115" s="50" t="s">
+      <c r="R115" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="S115" s="51">
+      <c r="S115" s="69">
         <f>S113/S114</f>
-        <v>57.923380097725349</v>
+        <v>56.926824293961182</v>
       </c>
     </row>
     <row r="116" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R116" s="49" t="s">
+      <c r="R116" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="S116" s="52">
-        <v>60.37</v>
+      <c r="S116" s="60" cm="1">
+        <f t="array" ref="S116">_FV(A1,"Price (Extended hours)",TRUE)</f>
+        <v>65.42</v>
       </c>
     </row>
     <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R117" s="53" t="s">
+      <c r="R117" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="S117" s="54">
+      <c r="S117" s="40">
         <f>S115/S116-1</f>
-        <v>-4.0527081369465812E-2</v>
+        <v>-0.12982537000976491</v>
       </c>
     </row>
     <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R118" s="53" t="s">
+      <c r="R118" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="S118" s="55" t="str">
+      <c r="S118" s="41" t="str">
         <f>IF(S115&gt;S116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
